--- a/Plan666.xlsx
+++ b/Plan666.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t xml:space="preserve">          plan</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">Javiar Rojas</t>
+    <t xml:space="preserve">Javier Rojas</t>
   </si>
   <si>
     <t xml:space="preserve">Leyenda</t>
@@ -141,6 +141,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,6 +163,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -341,18 +343,18 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.6153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7935222672065"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.64777327935223"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.60728744939271"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
@@ -431,7 +433,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>
@@ -460,7 +462,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
@@ -469,7 +471,9 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
@@ -489,7 +493,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
@@ -503,7 +507,9 @@
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -522,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
@@ -565,7 +571,9 @@
       <c r="M7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="O7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -587,15 +595,15 @@
       <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
@@ -613,7 +621,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
@@ -627,8 +635,12 @@
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
